--- a/biology/Botanique/Maratelli/Maratelli.xlsx
+++ b/biology/Botanique/Maratelli/Maratelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le riz Maratelli est une variété italienne (un cultivar) du riz (Oryza sativa), sous-espèce japonica[1].
-La variété est née après qu'un riziculteur de la province de Verceil, Mario Maratelli, a repéré en août 1914, dans son champ, un plant de riz aux caractéristiques particulières, plus précoce et avec des panicules plus longues que les autres plants de la rizière, et dont il récolta les graines séparément[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le riz Maratelli est une variété italienne (un cultivar) du riz (Oryza sativa), sous-espèce japonica.
+La variété est née après qu'un riziculteur de la province de Verceil, Mario Maratelli, a repéré en août 1914, dans son champ, un plant de riz aux caractéristiques particulières, plus précoce et avec des panicules plus longues que les autres plants de la rizière, et dont il récolta les graines séparément.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Maratelli est une variété de riz formée en 1914 à Asigliano Vercellese grâce à Mario Maratelli. Cette variété de riz est un cultivar dérivé à l'origine pour une hybridation naturelle, appartenant au groupe Japonica[1]. Le riz Maratelli est inclus dans les variétés à cycle précoce ; de par sa taille moyenne, il appartient au groupe des riz à grains semi-fins. La plante atteint en moyenne une hauteur de 96-118 cm. Le limbe des feuilles est une pendule tandis que l'épi de maïs est de longueur moyenne et dispose d'un péricarpe. Les grains blancs sont arrondis, moyens, riches en amidon, et donc très faciles à digérer. Les noyaux ont une longueur de 5,6 cm et une largeur de 3,1 cm[1]. La durée de croissance du Maratelli est 145 à 160 jours, et débute pendant la première moitié du mois d'août[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Maratelli est une variété de riz formée en 1914 à Asigliano Vercellese grâce à Mario Maratelli. Cette variété de riz est un cultivar dérivé à l'origine pour une hybridation naturelle, appartenant au groupe Japonica. Le riz Maratelli est inclus dans les variétés à cycle précoce ; de par sa taille moyenne, il appartient au groupe des riz à grains semi-fins. La plante atteint en moyenne une hauteur de 96-118 cm. Le limbe des feuilles est une pendule tandis que l'épi de maïs est de longueur moyenne et dispose d'un péricarpe. Les grains blancs sont arrondis, moyens, riches en amidon, et donc très faciles à digérer. Les noyaux ont une longueur de 5,6 cm et une largeur de 3,1 cm. La durée de croissance du Maratelli est 145 à 160 jours, et débute pendant la première moitié du mois d'août.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1923, Mario Maratelli a remporté, pour la culture du riz du même nom, la Médaille d'Or au concours national de semences de riz de sélection de la station expérimentale de Verceil la culture du riz[réf. nécessaire]. En 1930, il a obtenu le Diplôme du Mérite et un prix en argent de £ 2000 de la présidente de l'Agriculture provinciale et en 1933 a reçu le diplôme de l'Ordre de Troisième classe du Mérite ainsi que le Bronze Star du Mérite par le Roi Vittorio Emanuele III[réf. nécessaire]. En 1952 lui était décerné le titre de Chevalier de l'Ordre du Mérite de la République italienne[réf. nécessaire].
 En 1937, le riz Maratelli a assuré 6 % de la production nationale et a obtenu la deuxième place des variétés les plus courantes, conservant cette position jusqu'en 1949[réf. nécessaire]. 
